--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>表1</t>
   </si>
@@ -43,6 +43,9 @@
     <t>確認日付</t>
   </si>
   <si>
+    <t>アカウント登録画面</t>
+  </si>
+  <si>
     <t>名前（姓）</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>１１文字入力する</t>
   </si>
   <si>
+    <t>MAX１０文字で指定しているので１０文字以上の入力が出来ない</t>
+  </si>
+  <si>
     <t>許容文字エラー</t>
   </si>
   <si>
@@ -103,9 +109,18 @@
     <t>＠ありで１０１文字入力する</t>
   </si>
   <si>
+    <t>MAX１００文字で指定しているので１０１文字以上の入力が出来ない</t>
+  </si>
+  <si>
     <t>半角英数字、半角ハイフン、ハイフンとアットマーク以外を入力する</t>
   </si>
   <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>アンダーバーなどの他の記号が入力できてしまう</t>
+  </si>
+  <si>
     <t>記号</t>
   </si>
   <si>
@@ -130,30 +145,42 @@
     <t>性別</t>
   </si>
   <si>
+    <t>男が選択されてる状態で「確認」ボタンを押下する</t>
+  </si>
+  <si>
+    <t>他欄にて入力エラーがない場合は次画面へ遷移する</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>半角数字で７桁入力する</t>
+  </si>
+  <si>
+    <t>半角数字で８桁入力する</t>
+  </si>
+  <si>
+    <t>MAX７文字で指定しているので８文字以上の入力が出来ない</t>
+  </si>
+  <si>
+    <t>半角数字で６桁入力する</t>
+  </si>
+  <si>
+    <t>半角数字以外の文字種を入力する</t>
+  </si>
+  <si>
+    <t>住所（都道府県</t>
+  </si>
+  <si>
     <t>未選択の状態で「確認」ボタンを押下する</t>
   </si>
   <si>
-    <t>郵便番号</t>
-  </si>
-  <si>
-    <t>半角数字で７桁入力する</t>
-  </si>
-  <si>
-    <t>半角数字で８桁入力する</t>
-  </si>
-  <si>
-    <t>半角数字で６桁入力する</t>
-  </si>
-  <si>
-    <t>半角英数字以外の文字種を入力する</t>
-  </si>
-  <si>
-    <t>住所（都道府県）</t>
-  </si>
-  <si>
     <t>住所（市区町村）</t>
   </si>
   <si>
+    <t>MAX１０文字で指定しているので１１文字以上の入力が出来ない</t>
+  </si>
+  <si>
     <t>漢字、ひらがな、カタカナ、数字、記号（ハイフンとスペース）以外を入力する</t>
   </si>
   <si>
@@ -170,6 +197,96 @@
   </si>
   <si>
     <t>一般が選択されてる状態で「確認」ボタンを押下する</t>
+  </si>
+  <si>
+    <t>確認ボタン</t>
+  </si>
+  <si>
+    <t>未選択・未入力がある</t>
+  </si>
+  <si>
+    <t>一件でもあれば次画面へ遷移せず、同一画面にてエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>赤字でエラー表示にする</t>
+  </si>
+  <si>
+    <t>未選択・未入力がない</t>
+  </si>
+  <si>
+    <t>エラーが０件ならばアカウント登録確認画面に遷移する</t>
+  </si>
+  <si>
+    <t>画面URL</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>任意のURL/regist.phpになってるか</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面</t>
+  </si>
+  <si>
+    <t>必須</t>
+  </si>
+  <si>
+    <t>アカウント登録画面の入力値をテキスト表示する</t>
+  </si>
+  <si>
+    <t>表示記号</t>
+  </si>
+  <si>
+    <t>●で表示されているか</t>
+  </si>
+  <si>
+    <t>アカウント登録画面の選択値をテキスト表示する</t>
+  </si>
+  <si>
+    <t>前に戻る</t>
+  </si>
+  <si>
+    <t>該当ボタンを押下</t>
+  </si>
+  <si>
+    <t>入力情報保持を行なってアカウント登録画面に遷移</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>ボタン形式</t>
+  </si>
+  <si>
+    <t>登録する</t>
+  </si>
+  <si>
+    <t>登録処理をしてアカウント登録完了画面に遷移</t>
+  </si>
+  <si>
+    <t>任意のURL/regist_confirm.phpになってるか</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面</t>
+  </si>
+  <si>
+    <t>登録完了しました</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面の登録するボタンを押下</t>
+  </si>
+  <si>
+    <t>画面中央に大きくテキスト表示されている</t>
+  </si>
+  <si>
+    <t>TOPページへ戻る</t>
+  </si>
+  <si>
+    <t>D.Iブログのトップページに遷移</t>
+  </si>
+  <si>
+    <t>任意のURL/regist_complete.phpになっているか</t>
   </si>
 </sst>
 </file>
@@ -180,7 +297,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -192,17 +309,29 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="10"/>
-      <color indexed="14"/>
+      <color indexed="16"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="17"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,12 +346,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -234,29 +369,36 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
         <color indexed="11"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="thin">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
         <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -265,58 +407,103 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
         <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      </right>
+      <top style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="thin">
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -325,55 +512,550 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="19"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      </left>
+      <right style="thin">
+        <color indexed="19"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="19"/>
+      </left>
+      <right style="thin">
+        <color indexed="19"/>
+      </right>
+      <top style="thin">
+        <color indexed="19"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="19"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="19"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="19"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="20"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="20"/>
+      </left>
+      <right style="thin">
+        <color indexed="20"/>
+      </right>
+      <top style="thin">
+        <color indexed="20"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="20"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="21"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="20"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="21"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right style="thin">
+        <color indexed="21"/>
+      </right>
+      <top style="thin">
+        <color indexed="21"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="21"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="thin">
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="21"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
-      </right>
-      <top style="thin">
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -382,76 +1064,16 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,83 +1083,209 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -557,12 +1305,20 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="fff7bcb2"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="fff7bcb2"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff0432ff"/>
       <rgbColor rgb="ffff2600"/>
+      <rgbColor rgb="ffa4a5a4"/>
+      <rgbColor rgb="ffa5a4a7"/>
+      <rgbColor rgb="ff9b9b9b"/>
+      <rgbColor rgb="ff919191"/>
+      <rgbColor rgb="ffa5a4a6"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -579,10 +1335,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -759,11 +1515,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -772,7 +1531,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -787,12 +1546,12 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -1049,10 +1808,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1343,7 +2102,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1621,23 +2380,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I54"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.42969" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1484" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6797" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5312" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.9688" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1406" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5312" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1016" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.89062" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42188" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.2109" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6016" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.2109" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6016" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.2109" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.8125" style="1" customWidth="1"/>
     <col min="10" max="256" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1645,1067 +2402,1859 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" ht="33.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" t="s" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="33.5" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="7">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" ht="33.5" customHeight="1">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="C4" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="D4" t="s" s="17">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="E4" t="s" s="17">
         <v>14</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="I3" s="11">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="4" ht="48.3" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="15">
+      <c r="F4" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="I4" s="19">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="5" ht="48.3" customHeight="1">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="15">
+      <c r="D5" t="s" s="23">
         <v>18</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I4" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="5" ht="33.3" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="16"/>
-      <c r="D5" t="s" s="15">
+      <c r="E5" t="s" s="23">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="15">
+      <c r="F5" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I5" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="6" ht="33.3" customHeight="1">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="24"/>
+      <c r="D6" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I6" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="7" ht="33.3" customHeight="1">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s" s="23">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I7" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="8" ht="33.3" customHeight="1">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I5" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="6" ht="33.3" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" t="s" s="14">
+      <c r="E8" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I8" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="9" ht="48.3" customHeight="1">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I9" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="10" ht="33.3" customHeight="1">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" t="s" s="23">
         <v>20</v>
       </c>
-      <c r="D6" t="s" s="15">
+      <c r="E10" t="s" s="23">
         <v>21</v>
       </c>
-      <c r="E6" t="s" s="15">
+      <c r="F10" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I10" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="11" ht="33.3" customHeight="1">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s" s="23">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I11" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="12" ht="33.3" customHeight="1">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I6" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="7" ht="33.3" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" t="s" s="18">
+      <c r="E12" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I12" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="13" ht="48.3" customHeight="1">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I13" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="14" ht="33.3" customHeight="1">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I14" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="15" ht="33.3" customHeight="1">
+      <c r="A15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="D15" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I15" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="16" ht="33.3" customHeight="1">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="26">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I16" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="17" ht="48.3" customHeight="1">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I17" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="18" ht="33.3" customHeight="1">
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I18" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="19" ht="33.3" customHeight="1">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I19" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="20" ht="33.3" customHeight="1">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="26">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I20" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="21" ht="48.3" customHeight="1">
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I21" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="22" ht="45" customHeight="1">
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="24"/>
+      <c r="D22" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I22" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="23" ht="48.3" customHeight="1">
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s" s="27">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I23" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="24" ht="48.3" customHeight="1">
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" t="s" s="22">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s" s="23">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I24" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="25" ht="33.3" customHeight="1">
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" t="s" s="23">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I25" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="26" ht="33.3" customHeight="1">
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="26">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I26" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="27" ht="48.3" customHeight="1">
+      <c r="A27" s="20">
+        <v>25</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I27" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="28" ht="33.3" customHeight="1">
+      <c r="A28" s="20">
+        <v>26</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I28" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="29" ht="33.3" customHeight="1">
+      <c r="A29" s="20">
+        <v>27</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" t="s" s="23">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I29" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="30" ht="48.3" customHeight="1">
+      <c r="A30" s="20">
+        <v>28</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="24"/>
+      <c r="D30" t="s" s="23">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I30" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="31" ht="48.3" customHeight="1">
+      <c r="A31" s="20">
+        <v>29</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s" s="23">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I31" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="32" ht="27.95" customHeight="1">
+      <c r="A32" s="20">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="26">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s" s="28">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I32" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="33" ht="33.3" customHeight="1">
+      <c r="A33" s="20">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I33" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="34" ht="48.3" customHeight="1">
+      <c r="A34" s="20">
+        <v>32</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I34" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="20">
+        <v>33</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="24"/>
+      <c r="D35" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s" s="23">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I35" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="36" ht="48.3" customHeight="1">
+      <c r="A36" s="20">
+        <v>34</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="24"/>
+      <c r="D36" t="s" s="23">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I36" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="37" ht="33.3" customHeight="1">
+      <c r="A37" s="20">
+        <v>35</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s" s="23">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I37" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="38" ht="33.3" customHeight="1">
+      <c r="A38" s="20">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="26">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s" s="23">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I38" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="39" ht="33.3" customHeight="1">
+      <c r="A39" s="20">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I39" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="40" ht="48.3" customHeight="1">
+      <c r="A40" s="20">
+        <v>38</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I40" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="41" ht="33.3" customHeight="1">
+      <c r="A41" s="20">
+        <v>39</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="24"/>
+      <c r="D41" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s" s="23">
+        <v>55</v>
+      </c>
+      <c r="F41" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I41" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="42" ht="63.3" customHeight="1">
+      <c r="A42" s="20">
+        <v>40</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s" s="23">
+        <v>56</v>
+      </c>
+      <c r="E42" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I42" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="43" ht="33.3" customHeight="1">
+      <c r="A43" s="20">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I43" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="44" ht="44.75" customHeight="1">
+      <c r="A44" s="20">
+        <v>42</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s" s="23">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I44" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="45" ht="45" customHeight="1">
+      <c r="A45" s="20">
+        <v>43</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="24"/>
+      <c r="D45" t="s" s="23">
+        <v>59</v>
+      </c>
+      <c r="E45" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I45" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="46" ht="63.3" customHeight="1">
+      <c r="A46" s="20">
+        <v>44</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s" s="23">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I46" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="47" ht="48.3" customHeight="1">
+      <c r="A47" s="20">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s" s="28">
+        <v>61</v>
+      </c>
+      <c r="E47" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G47" s="24"/>
+      <c r="H47" t="s" s="23">
+        <v>16</v>
+      </c>
+      <c r="I47" s="25">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="48" ht="45.8" customHeight="1">
+      <c r="A48" s="20">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s" s="26">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s" s="23">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s" s="28">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s" s="23">
+        <v>65</v>
+      </c>
+      <c r="H48" s="24"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="49" ht="45.8" customHeight="1">
+      <c r="A49" s="20">
+        <v>47</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="30"/>
+      <c r="D49" t="s" s="23">
+        <v>66</v>
+      </c>
+      <c r="E49" t="s" s="28">
+        <v>67</v>
+      </c>
+      <c r="F49" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="29"/>
+    </row>
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="20">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s" s="22">
+        <v>69</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" t="s" s="28">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="29"/>
+    </row>
+    <row r="51" ht="18.3" customHeight="1">
+      <c r="A51" s="20">
+        <v>50</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="29"/>
+    </row>
+    <row r="52" ht="18.3" customHeight="1">
+      <c r="A52" s="20">
+        <v>51</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="29"/>
+    </row>
+    <row r="53" ht="36.8" customHeight="1">
+      <c r="A53" s="20">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s" s="32">
+        <v>71</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="29"/>
+    </row>
+    <row r="54" ht="33.8" customHeight="1">
+      <c r="A54" s="20">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I7" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="8" ht="48.3" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I8" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="9" ht="33.3" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="16"/>
-      <c r="D9" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I9" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="10" ht="33.3" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I10" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="11" ht="33.3" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" t="s" s="18">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I11" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="12" ht="48.3" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I12" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="13" ht="33.3" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
-      <c r="D13" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I13" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="14" ht="33.3" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I14" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="15" ht="33.3" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I15" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="16" ht="48.3" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I16" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="17" ht="33.3" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
-      <c r="D17" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I17" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="18" ht="33.3" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I18" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="19" ht="33.3" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I19" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="20" ht="48.3" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I20" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="21" ht="33.3" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="16"/>
-      <c r="D21" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I21" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="22" ht="48.3" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I22" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="23" ht="48.3" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I23" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="24" ht="33.3" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
-      <c r="D24" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I24" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="25" ht="33.3" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" t="s" s="18">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I25" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="26" ht="48.3" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I26" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="27" ht="33.3" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="16"/>
-      <c r="D27" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I27" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="28" ht="33.3" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="16"/>
-      <c r="D28" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I28" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="29" ht="48.3" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="16"/>
-      <c r="D29" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="E29" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I29" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="30" ht="48.3" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I30" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="31" ht="33.3" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" t="s" s="18">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="E31" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I31" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="32" ht="33.3" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I32" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="33" ht="48.3" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="E33" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I33" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="34" ht="33.3" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="16"/>
-      <c r="D34" t="s" s="15">
-        <v>42</v>
-      </c>
-      <c r="E34" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I34" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="35" ht="48.3" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="16"/>
-      <c r="D35" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="E35" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I35" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="36" ht="33.3" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s" s="15">
-        <v>44</v>
-      </c>
-      <c r="E36" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I36" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="37" ht="33.3" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" t="s" s="19">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="E37" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I37" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="38" ht="33.3" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" t="s" s="19">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="E38" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I38" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="39" ht="48.3" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I39" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="40" ht="33.3" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="16"/>
-      <c r="D40" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I40" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="41" ht="63.3" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I41" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="42" ht="33.3" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" t="s" s="19">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s" s="15">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I42" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="43" ht="18.3" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s" s="15">
-        <v>49</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I43" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="44" ht="33.3" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="16"/>
-      <c r="D44" t="s" s="15">
-        <v>50</v>
-      </c>
-      <c r="E44" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I44" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="45" ht="63.3" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="E45" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I45" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="46" ht="48.3" customHeight="1">
-      <c r="A46" s="12"/>
-      <c r="B46" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s" s="20">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="20">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="I46" s="17">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="47" ht="18.3" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="21"/>
-    </row>
-    <row r="48" ht="18.3" customHeight="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" ht="18.3" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" ht="18.3" customHeight="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="21"/>
-    </row>
-    <row r="51" ht="18.3" customHeight="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="21"/>
-    </row>
-    <row r="52" ht="18.3" customHeight="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="21"/>
-    </row>
-    <row r="53" ht="18.3" customHeight="1">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="21"/>
-    </row>
-    <row r="54" ht="18.3" customHeight="1">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
+      <c r="C54" t="s" s="22">
+        <v>72</v>
+      </c>
       <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
+      <c r="E54" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F54" t="s" s="23">
+        <v>15</v>
+      </c>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
-      <c r="I54" s="25"/>
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" ht="33.3" customHeight="1">
+      <c r="A55" s="20">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="29"/>
+    </row>
+    <row r="56" ht="36.25" customHeight="1">
+      <c r="A56" s="20">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F56" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="29"/>
+    </row>
+    <row r="57" ht="33.8" customHeight="1">
+      <c r="A57" s="20">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s" s="33">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F57" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="29"/>
+    </row>
+    <row r="58" ht="33.4" customHeight="1">
+      <c r="A58" s="20">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s" s="34">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F58" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="29"/>
+    </row>
+    <row r="59" ht="34.45" customHeight="1">
+      <c r="A59" s="20">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s" s="26">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F59" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="29"/>
+    </row>
+    <row r="60" ht="43.9" customHeight="1">
+      <c r="A60" s="20">
+        <v>59</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" t="s" s="22">
+        <v>74</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" t="s" s="23">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="29"/>
+    </row>
+    <row r="61" ht="33.95" customHeight="1">
+      <c r="A61" s="20">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s" s="26">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" t="s" s="23">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="29"/>
+    </row>
+    <row r="62" ht="33.35" customHeight="1">
+      <c r="A62" s="20">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F62" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="29"/>
+    </row>
+    <row r="63" ht="33.65" customHeight="1">
+      <c r="A63" s="20">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s" s="26">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" t="s" s="23">
+        <v>76</v>
+      </c>
+      <c r="F63" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="29"/>
+    </row>
+    <row r="64" ht="33.35" customHeight="1">
+      <c r="A64" s="20">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="C64" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F64" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="29"/>
+    </row>
+    <row r="65" ht="34.55" customHeight="1">
+      <c r="A65" s="20">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="29"/>
+    </row>
+    <row r="66" ht="27.95" customHeight="1">
+      <c r="A66" s="20">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F66" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="29"/>
+    </row>
+    <row r="67" ht="27.95" customHeight="1">
+      <c r="A67" s="20">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s" s="26">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s" s="23">
+        <v>78</v>
+      </c>
+      <c r="E67" t="s" s="23">
+        <v>79</v>
+      </c>
+      <c r="F67" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="29"/>
+    </row>
+    <row r="68" ht="33.55" customHeight="1">
+      <c r="A68" s="20">
+        <v>67</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" t="s" s="22">
+        <v>80</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" t="s" s="23">
+        <v>81</v>
+      </c>
+      <c r="F68" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="29"/>
+    </row>
+    <row r="69" ht="33.55" customHeight="1">
+      <c r="A69" s="20">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s" s="26">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s" s="23">
+        <v>78</v>
+      </c>
+      <c r="E69" t="s" s="23">
+        <v>83</v>
+      </c>
+      <c r="F69" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="29"/>
+    </row>
+    <row r="70" ht="33.55" customHeight="1">
+      <c r="A70" s="20">
+        <v>69</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" t="s" s="22">
+        <v>80</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" t="s" s="35">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="29"/>
+    </row>
+    <row r="71" ht="33.4" customHeight="1">
+      <c r="A71" s="20">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s" s="36">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s" s="22">
+        <v>69</v>
+      </c>
+      <c r="D71" s="37"/>
+      <c r="E71" t="s" s="38">
+        <v>84</v>
+      </c>
+      <c r="F71" t="s" s="39">
+        <v>34</v>
+      </c>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="29"/>
+    </row>
+    <row r="72" ht="43.15" customHeight="1">
+      <c r="A72" s="40">
+        <v>71</v>
+      </c>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="29"/>
+    </row>
+    <row r="73" ht="43.15" customHeight="1">
+      <c r="A73" s="20">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s" s="44">
+        <v>85</v>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="29"/>
+    </row>
+    <row r="74" ht="43.15" customHeight="1">
+      <c r="A74" s="20">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s" s="26">
+        <v>86</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" t="s" s="23">
+        <v>87</v>
+      </c>
+      <c r="E74" t="s" s="45">
+        <v>88</v>
+      </c>
+      <c r="F74" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="46"/>
+    </row>
+    <row r="75" ht="43.15" customHeight="1">
+      <c r="A75" s="20">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s" s="26">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s" s="47">
+        <v>78</v>
+      </c>
+      <c r="E75" t="s" s="48">
+        <v>90</v>
+      </c>
+      <c r="F75" t="s" s="49">
+        <v>15</v>
+      </c>
+      <c r="G75" s="31"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="46"/>
+    </row>
+    <row r="76" ht="43.15" customHeight="1">
+      <c r="A76" s="20">
+        <v>75</v>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="C76" t="s" s="22">
+        <v>80</v>
+      </c>
+      <c r="D76" s="31"/>
+      <c r="E76" t="s" s="51">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G76" s="52"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="54"/>
+    </row>
+    <row r="77" ht="43.15" customHeight="1">
+      <c r="A77" s="55"/>
+      <c r="B77" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s" s="22">
+        <v>69</v>
+      </c>
+      <c r="D77" s="31"/>
+      <c r="E77" t="s" s="23">
+        <v>91</v>
+      </c>
+      <c r="F77" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="G77" s="56"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="46"/>
+    </row>
+    <row r="78" ht="43.15" customHeight="1">
+      <c r="A78" s="55"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="46"/>
+    </row>
+    <row r="79" ht="43.15" customHeight="1">
+      <c r="A79" s="55"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="46"/>
+    </row>
+    <row r="80" ht="43.15" customHeight="1">
+      <c r="A80" s="55"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="46"/>
+    </row>
+    <row r="81" ht="43.15" customHeight="1">
+      <c r="A81" s="55"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="46"/>
+    </row>
+    <row r="82" ht="43.15" customHeight="1">
+      <c r="A82" s="55"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="46"/>
+    </row>
+    <row r="83" ht="43.15" customHeight="1">
+      <c r="A83" s="55"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="29"/>
+    </row>
+    <row r="84" ht="43.15" customHeight="1">
+      <c r="A84" s="55"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="29"/>
+    </row>
+    <row r="85" ht="43.15" customHeight="1">
+      <c r="A85" s="63"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="18">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B75:B76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
